--- a/Inditex_Simplified_ModelB - Copy.xlsx
+++ b/Inditex_Simplified_ModelB - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925DFC9E-A44B-4259-A444-128358E25A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640349EE-869C-40A8-934C-DAF1ED739488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inditex_Simplified_ModelB - Copy.xlsx
+++ b/Inditex_Simplified_ModelB - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640349EE-869C-40A8-934C-DAF1ED739488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5E14C-9554-4218-92EA-6D71D16B16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -87,28 +87,52 @@
     <t>Debt-to-equity</t>
   </si>
   <si>
-    <t>Net Worth (PATRIMONIO NETO) (€ millions)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES (PASIVO TOTAL) (€ millions)</t>
-  </si>
-  <si>
-    <t>CURRENT LIABILITIES (PASIVOS CORRIENTES)</t>
-  </si>
-  <si>
-    <t>CURRENT ASSETS (ACTIVOS CORRIENTES) (€ millions)</t>
-  </si>
-  <si>
     <t>ROA</t>
   </si>
   <si>
-    <t>Total Assets (Activos totales) (€ millions)</t>
-  </si>
-  <si>
     <t>ROE</t>
   </si>
   <si>
     <t>Market return</t>
+  </si>
+  <si>
+    <t>Revenue Growth (%)</t>
+  </si>
+  <si>
+    <t>Inventory days</t>
+  </si>
+  <si>
+    <t>Average Inventory (€ millions)</t>
+  </si>
+  <si>
+    <t>Operating_Cash_Flow (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Revenue (€ millions) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Net_Income (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>TOTAL LIABILITIES (PASIVO TOTAL) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Net Worth (PATRIMONIO NETO) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Total Assets (Activos totales) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>CURRENT ASSETS (ACTIVOS CORRIENTES) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>CURRENT LIABILITIES (PASIVOS CORRIENTES) (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Cost of goods (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Stock/inventories (€ Billions) US format</t>
   </si>
 </sst>
 </file>
@@ -153,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,6 +198,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,25 +504,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C4A84D-D442-4020-887B-0F4C9E38A7D4}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="3" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="20" max="20" width="22.109375" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,55 +532,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -559,60 +603,76 @@
         <v>22.26</v>
       </c>
       <c r="C2" s="6">
-        <v>20900.438999999998</v>
+        <v>20.900438999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>2882.201</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="E2" s="6">
-        <v>5906.3549999999996</v>
+        <v>2.8822009999999998</v>
       </c>
       <c r="F2" s="6">
-        <v>11450.793</v>
+        <v>5.9063549999999996</v>
       </c>
       <c r="G2" s="6">
-        <v>17357.148000000001</v>
+        <v>11.450793000000001</v>
       </c>
       <c r="H2" s="6">
-        <v>8449.2350000000006</v>
+        <v>17.357147999999999</v>
       </c>
       <c r="I2" s="6">
-        <v>4670.1509999999998</v>
+        <v>8.4492349999999998</v>
       </c>
       <c r="J2" s="6">
-        <f>H2/I2</f>
-        <v>1.8091995312357141</v>
+        <v>4.6701509999999997</v>
       </c>
       <c r="K2" s="6">
-        <f>E2/F2</f>
-        <v>0.51580314131955751</v>
-      </c>
-      <c r="L2" s="6">
-        <f>D2/G2</f>
-        <v>0.16605268330949299</v>
+        <v>8.8111390000000007</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.1950150000000002</v>
       </c>
       <c r="M2" s="6">
-        <f>D2/F2</f>
-        <v>0.25170317898507116</v>
-      </c>
-      <c r="N2" s="7">
+        <v>2.0272700000000001</v>
+      </c>
+      <c r="N2" s="6">
+        <f>(M2/K2)*365</f>
+        <v>83.979330027593477</v>
+      </c>
+      <c r="O2" s="6">
+        <f>I2/J2</f>
+        <v>1.8091995312357139</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" ref="P2:P11" si="0">F2/G2</f>
+        <v>0.5158031413195574</v>
+      </c>
+      <c r="Q2" s="6">
+        <f t="shared" ref="Q2:Q11" si="1">E2/H2</f>
+        <v>0.16605268330949302</v>
+      </c>
+      <c r="R2" s="6">
+        <f t="shared" ref="R2:R11" si="2">E2/G2</f>
+        <v>0.25170317898507111</v>
+      </c>
+      <c r="S2" s="7">
         <v>0.92300000000000004</v>
       </c>
-      <c r="O2" s="6">
-        <v>4499.5280000000002</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="T2" s="6">
+        <v>4.4995279999999998</v>
+      </c>
+      <c r="U2" s="6">
         <v>8815.7900000000009</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="V2" s="6">
         <v>-15.259600000000001</v>
       </c>
-      <c r="R2" s="6">
-        <f>Q2/100</f>
+      <c r="W2" s="6">
+        <f>V2/100</f>
         <v>-0.15259600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -620,61 +680,79 @@
         <v>22.97</v>
       </c>
       <c r="C3" s="6">
-        <v>23310.531999999999</v>
+        <v>23.310531999999998</v>
       </c>
       <c r="D3" s="6">
-        <v>3161.105</v>
+        <f>(C3-C2)/C2</f>
+        <v>0.11531303242003672</v>
       </c>
       <c r="E3" s="6">
-        <v>6869.8810000000003</v>
+        <v>3.1611050000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>12751.554</v>
+        <v>6.8698810000000003</v>
       </c>
       <c r="G3" s="6">
-        <v>19621.435000000001</v>
+        <v>12.751554</v>
       </c>
       <c r="H3" s="6">
-        <v>9898.3469999999998</v>
+        <v>19.621435000000002</v>
       </c>
       <c r="I3" s="6">
-        <v>5450.5739999999996</v>
+        <v>9.8983469999999993</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J11" si="0">H3/I3</f>
-        <v>1.816019193574842</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K11" si="1">E3/F3</f>
-        <v>0.53874853213969065</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L11" si="2">D3/G3</f>
+        <v>5.4505739999999996</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10.031981999999999</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2.5491950000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <f>(L3+L2)/2</f>
+        <v>2.3721050000000004</v>
+      </c>
+      <c r="N3" s="6">
+        <f>(M3/K3)*365</f>
+        <v>86.305809260822059</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O11" si="3">I3/J3</f>
+        <v>1.8160191935748418</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53874853213969054</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="1"/>
         <v>0.16110467965263497</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M11" si="3">D3/F3</f>
+      <c r="R3" s="6">
+        <f t="shared" si="2"/>
         <v>0.24789958933632716</v>
       </c>
-      <c r="N3" s="7">
+      <c r="S3" s="7">
         <v>1.014</v>
       </c>
-      <c r="O3" s="6">
-        <v>4131.4040000000005</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="T3" s="6">
+        <v>4.1314039999999999</v>
+      </c>
+      <c r="U3" s="6">
         <v>9315.2000000000007</v>
       </c>
-      <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q11" si="4">IF(P2&lt;&gt;0,(P3-P2)/P2*100,"")</f>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V11" si="4">IF(U2&lt;&gt;0,(U3-U2)/U2*100,"")</f>
         <v>5.6649489155254358</v>
       </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3:R11" si="5">Q3/100</f>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W11" si="5">V3/100</f>
         <v>5.6649489155254355E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -682,61 +760,79 @@
         <v>22.16</v>
       </c>
       <c r="C4" s="6">
-        <v>25336</v>
+        <v>25.335999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>3372</v>
+        <f t="shared" ref="D4:D11" si="6">(C4-C3)/C3</f>
+        <v>8.6890681002046638E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>6709</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>13522</v>
+        <v>6.7089999999999996</v>
       </c>
       <c r="G4" s="6">
-        <v>20231</v>
+        <v>13.522</v>
       </c>
       <c r="H4" s="6">
-        <v>10147</v>
+        <v>20.231000000000002</v>
       </c>
       <c r="I4" s="6">
-        <v>5173</v>
+        <v>10.147</v>
       </c>
       <c r="J4" s="6">
+        <v>5.173</v>
+      </c>
+      <c r="K4" s="6">
+        <v>11.076000000000001</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M11" si="7">(L4+L3)/2</f>
+        <v>2.6170974999999999</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N11" si="8">(M4/K4)*365</f>
+        <v>86.244184498013709</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9615310264836652</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="0"/>
-        <v>1.9615310264836652</v>
-      </c>
-      <c r="K4" s="6">
+        <v>0.49615441502736279</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" si="1"/>
-        <v>0.49615441502736279</v>
-      </c>
-      <c r="L4" s="6">
+        <v>0.16667490484899411</v>
+      </c>
+      <c r="R4" s="6">
         <f t="shared" si="2"/>
-        <v>0.16667490484899411</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" si="3"/>
         <v>0.24937139476408815</v>
       </c>
-      <c r="N4" s="7">
+      <c r="S4" s="7">
         <v>1.0820000000000001</v>
       </c>
-      <c r="O4" s="6">
-        <v>3961</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="T4" s="6">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="U4" s="6">
         <v>10451.5</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="V4" s="6">
         <f t="shared" si="4"/>
         <v>12.19834249398831</v>
       </c>
-      <c r="R4" s="6">
+      <c r="W4" s="6">
         <f t="shared" si="5"/>
         <v>0.12198342493988309</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -744,61 +840,79 @@
         <v>19.260000000000002</v>
       </c>
       <c r="C5" s="6">
-        <v>26145</v>
+        <v>26.145</v>
       </c>
       <c r="D5" s="6">
-        <v>3448</v>
+        <f t="shared" si="6"/>
+        <v>3.193084938427538E-2</v>
       </c>
       <c r="E5" s="6">
-        <v>7002</v>
+        <v>3.448</v>
       </c>
       <c r="F5" s="6">
-        <v>14682</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="G5" s="6">
-        <v>21684</v>
+        <v>14.682</v>
       </c>
       <c r="H5" s="6">
-        <v>10620</v>
+        <v>21.684000000000001</v>
       </c>
       <c r="I5" s="6">
-        <v>5383</v>
+        <v>10.62</v>
       </c>
       <c r="J5" s="6">
+        <v>5.383</v>
+      </c>
+      <c r="K5" s="6">
+        <v>11.329000000000001</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="7"/>
+        <v>2.7004999999999999</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="8"/>
+        <v>87.005252008120735</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9728775775589817</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>1.972877577558982</v>
-      </c>
-      <c r="K5" s="6">
+        <v>0.47691050265631385</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>0.47691050265631385</v>
-      </c>
-      <c r="L5" s="6">
+        <v>0.15901125253643239</v>
+      </c>
+      <c r="R5" s="6">
         <f t="shared" si="2"/>
-        <v>0.15901125253643239</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="3"/>
         <v>0.23484538891159243</v>
       </c>
-      <c r="N5" s="8">
+      <c r="S5" s="8">
         <v>1.1060000000000001</v>
       </c>
-      <c r="O5" s="6">
-        <v>4029</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="T5" s="6">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="U5" s="6">
         <v>9056.7000000000007</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="4"/>
         <v>-13.34545280581734</v>
       </c>
-      <c r="R5" s="6">
+      <c r="W5" s="6">
         <f t="shared" si="5"/>
         <v>-0.1334545280581734</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -806,61 +920,79 @@
         <v>24.8</v>
       </c>
       <c r="C6" s="6">
-        <v>28286</v>
+        <v>28.286000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>3647</v>
+        <f t="shared" si="6"/>
+        <v>8.1889462612354247E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>13442</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F6" s="6">
-        <v>14949</v>
+        <v>13.442</v>
       </c>
       <c r="G6" s="6">
-        <v>28391</v>
+        <v>14.949</v>
       </c>
       <c r="H6" s="6">
-        <v>11414</v>
+        <v>28.390999999999998</v>
       </c>
       <c r="I6" s="6">
-        <v>7306</v>
+        <v>11.414</v>
       </c>
       <c r="J6" s="6">
+        <v>7.306</v>
+      </c>
+      <c r="K6" s="6">
+        <v>12.478999999999999</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="7"/>
+        <v>2.4925000000000002</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="8"/>
+        <v>72.903477842775871</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.5622775800711743</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>1.5622775800711743</v>
-      </c>
-      <c r="K6" s="6">
+        <v>0.89919058130978657</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>0.89919058130978657</v>
-      </c>
-      <c r="L6" s="6">
+        <v>0.12845620090873869</v>
+      </c>
+      <c r="R6" s="6">
         <f t="shared" si="2"/>
-        <v>0.12845620090873869</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="3"/>
         <v>0.24396280687671415</v>
       </c>
-      <c r="N6" s="7">
+      <c r="S6" s="7">
         <v>1.1679999999999999</v>
       </c>
-      <c r="O6" s="6">
-        <v>6900</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="T6" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="U6" s="6">
         <v>9367.9</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="V6" s="6">
         <f t="shared" si="4"/>
         <v>3.4361301577837282</v>
       </c>
-      <c r="R6" s="6">
+      <c r="W6" s="6">
         <f t="shared" si="5"/>
         <v>3.4361301577837282E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -868,61 +1000,79 @@
         <v>20.66</v>
       </c>
       <c r="C7" s="6">
-        <v>20402</v>
+        <v>20.402000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>1104</v>
+        <f t="shared" si="6"/>
+        <v>-0.27872445732871387</v>
       </c>
       <c r="E7" s="6">
-        <v>11868</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="F7" s="6">
-        <v>14550</v>
+        <v>11.868</v>
       </c>
       <c r="G7" s="6">
-        <v>26418</v>
+        <v>14.55</v>
       </c>
       <c r="H7" s="6">
-        <v>10957</v>
+        <v>26.417999999999999</v>
       </c>
       <c r="I7" s="6">
-        <v>6338</v>
+        <v>10.957000000000001</v>
       </c>
       <c r="J7" s="6">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>9.0129999999999999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="7"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="8"/>
+        <v>92.940752246754684</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7287787945724205</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>1.7287787945724202</v>
-      </c>
-      <c r="K7" s="6">
+        <v>0.81567010309278354</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0.81567010309278354</v>
-      </c>
-      <c r="L7" s="6">
+        <v>4.1789688848512384E-2</v>
+      </c>
+      <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>4.1789688848512377E-2</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="3"/>
         <v>7.5876288659793817E-2</v>
       </c>
-      <c r="N7" s="7">
+      <c r="S7" s="7">
         <v>0.35499999999999998</v>
       </c>
-      <c r="O7" s="6">
-        <v>3017</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="T7" s="6">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="U7" s="6">
         <v>7798.2</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="V7" s="6">
         <f t="shared" si="4"/>
         <v>-16.756156662645843</v>
       </c>
-      <c r="R7" s="6">
+      <c r="W7" s="6">
         <f t="shared" si="5"/>
         <v>-0.16756156662645844</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -930,61 +1080,79 @@
         <v>23.09</v>
       </c>
       <c r="C8" s="6">
-        <v>27716</v>
+        <v>27.716000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>3243</v>
+        <f t="shared" si="6"/>
+        <v>0.35849426526811096</v>
       </c>
       <c r="E8" s="6">
-        <v>13186</v>
+        <v>3.2429999999999999</v>
       </c>
       <c r="F8" s="6">
-        <v>15759</v>
+        <v>13.186</v>
       </c>
       <c r="G8" s="6">
-        <v>28945</v>
+        <v>15.759</v>
       </c>
       <c r="H8" s="6">
-        <v>13602</v>
+        <v>28.945</v>
       </c>
       <c r="I8" s="6">
-        <v>8030</v>
+        <v>13.602</v>
       </c>
       <c r="J8" s="6">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="K8" s="6">
+        <v>11.901999999999999</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="7"/>
+        <v>2.6814999999999998</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="8"/>
+        <v>82.233868257435716</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.693897882938979</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>1.6938978829389788</v>
-      </c>
-      <c r="K8" s="6">
+        <v>0.83672821879560888</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0.83672821879560888</v>
-      </c>
-      <c r="L8" s="6">
+        <v>0.11204007600621868</v>
+      </c>
+      <c r="R8" s="6">
         <f t="shared" si="2"/>
-        <v>0.11204007600621869</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="3"/>
         <v>0.20578716923662668</v>
       </c>
-      <c r="N8" s="7">
+      <c r="S8" s="7">
         <v>1.042</v>
       </c>
-      <c r="O8" s="6">
-        <v>6754</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
+        <v>6.7539999999999996</v>
+      </c>
+      <c r="U8" s="6">
         <v>8612.7999999999993</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="V8" s="6">
         <f t="shared" si="4"/>
         <v>10.446000359057212</v>
       </c>
-      <c r="R8" s="6">
+      <c r="W8" s="6">
         <f t="shared" si="5"/>
         <v>0.10446000359057211</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -992,61 +1160,79 @@
         <v>25.8</v>
       </c>
       <c r="C9" s="6">
-        <v>32569</v>
+        <v>32.569000000000003</v>
       </c>
       <c r="D9" s="6">
-        <v>4147</v>
+        <f t="shared" si="6"/>
+        <v>0.17509741665463996</v>
       </c>
       <c r="E9" s="6">
-        <v>12950</v>
+        <v>4.1470000000000002</v>
       </c>
       <c r="F9" s="6">
-        <v>17033</v>
+        <v>12.95</v>
       </c>
       <c r="G9" s="6">
-        <v>29983</v>
+        <v>17.033000000000001</v>
       </c>
       <c r="H9" s="6">
-        <v>14639</v>
+        <v>29.983000000000001</v>
       </c>
       <c r="I9" s="6">
-        <v>8137</v>
+        <v>14.638999999999999</v>
       </c>
       <c r="J9" s="6">
+        <v>8.1370000000000005</v>
+      </c>
+      <c r="K9" s="6">
+        <v>14.010999999999999</v>
+      </c>
+      <c r="L9" s="6">
+        <v>3.1909999999999998</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="7"/>
+        <v>3.1164999999999998</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="8"/>
+        <v>81.187816715437876</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7990659948383922</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>1.7990659948383925</v>
-      </c>
-      <c r="K9" s="6">
+        <v>0.76028885105383659</v>
+      </c>
+      <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0.7602888510538367</v>
-      </c>
-      <c r="L9" s="6">
+        <v>0.13831170996898243</v>
+      </c>
+      <c r="R9" s="6">
         <f t="shared" si="2"/>
-        <v>0.13831170996898243</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="3"/>
         <v>0.24346856102859155</v>
       </c>
-      <c r="N9" s="7">
+      <c r="S9" s="7">
         <v>1.327</v>
       </c>
-      <c r="O9" s="6">
-        <v>6674</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="T9" s="6">
+        <v>6.6740000000000004</v>
+      </c>
+      <c r="U9" s="6">
         <v>9034</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="V9" s="6">
         <f t="shared" si="4"/>
         <v>4.8903956901356214</v>
       </c>
-      <c r="R9" s="6">
+      <c r="W9" s="6">
         <f t="shared" si="5"/>
         <v>4.890395690135621E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1054,61 +1240,79 @@
         <v>37.159999999999997</v>
       </c>
       <c r="C10" s="6">
-        <v>35947</v>
+        <v>35.947000000000003</v>
       </c>
       <c r="D10" s="6">
-        <v>5381</v>
+        <f t="shared" si="6"/>
+        <v>0.10371825969480181</v>
       </c>
       <c r="E10" s="6">
-        <v>14063</v>
+        <v>5.3810000000000002</v>
       </c>
       <c r="F10" s="6">
-        <v>18672</v>
+        <v>14.063000000000001</v>
       </c>
       <c r="G10" s="6">
-        <v>32735</v>
+        <v>18.672000000000001</v>
       </c>
       <c r="H10" s="6">
-        <v>16016</v>
+        <v>32.734999999999999</v>
       </c>
       <c r="I10" s="6">
-        <v>8937</v>
+        <v>16.015999999999998</v>
       </c>
       <c r="J10" s="6">
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="K10" s="6">
+        <v>15.186</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="7"/>
+        <v>3.0785</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="8"/>
+        <v>73.992657711049645</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7921002573570548</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>1.792100257357055</v>
-      </c>
-      <c r="K10" s="6">
+        <v>0.75315981148243361</v>
+      </c>
+      <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>0.75315981148243361</v>
-      </c>
-      <c r="L10" s="6">
+        <v>0.16438063235069497</v>
+      </c>
+      <c r="R10" s="6">
         <f t="shared" si="2"/>
-        <v>0.16438063235069497</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="3"/>
         <v>0.28818551842330764</v>
       </c>
-      <c r="N10" s="7">
+      <c r="S10" s="7">
         <v>1.7290000000000001</v>
       </c>
-      <c r="O10" s="6">
-        <v>8667</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="T10" s="6">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="U10" s="6">
         <v>10077.700000000001</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="V10" s="6">
         <f t="shared" si="4"/>
         <v>11.55302191720169</v>
       </c>
-      <c r="R10" s="6">
+      <c r="W10" s="6">
         <f t="shared" si="5"/>
         <v>0.1155302191720169</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -1116,65 +1320,87 @@
         <v>50.92</v>
       </c>
       <c r="C11" s="6">
-        <v>38632</v>
+        <v>38.631999999999998</v>
       </c>
       <c r="D11" s="6">
-        <v>5800</v>
+        <f t="shared" si="6"/>
+        <v>7.4693298467187669E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>15038</v>
+        <v>5.8</v>
       </c>
       <c r="F11" s="6">
-        <v>19676</v>
+        <v>15.038</v>
       </c>
       <c r="G11" s="6">
-        <v>34714</v>
+        <v>19.675999999999998</v>
       </c>
       <c r="H11" s="6">
-        <v>16356</v>
+        <v>34.713999999999999</v>
       </c>
       <c r="I11" s="6">
-        <v>10187</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="J11" s="6">
+        <v>10.186999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <v>16.288</v>
+      </c>
+      <c r="L11" s="6">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="7"/>
+        <v>3.1435000000000004</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="8"/>
+        <v>70.443117632612967</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6055757337783452</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="0"/>
-        <v>1.6055757337783449</v>
-      </c>
-      <c r="K11" s="6">
+        <v>0.76428135799959351</v>
+      </c>
+      <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0.7642813579995934</v>
-      </c>
-      <c r="L11" s="6">
+        <v>0.16707956444085958</v>
+      </c>
+      <c r="R11" s="6">
         <f t="shared" si="2"/>
-        <v>0.16707956444085958</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="3"/>
-        <v>0.29477536084570033</v>
-      </c>
-      <c r="N11" s="7">
+        <v>0.29477536084570038</v>
+      </c>
+      <c r="S11" s="7">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O11" s="6">
-        <v>9288</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="T11" s="6">
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="U11" s="6">
         <v>12368.9</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="V11" s="6">
         <f t="shared" si="4"/>
         <v>22.735346358792171</v>
       </c>
-      <c r="R11" s="6">
+      <c r="W11" s="6">
         <f t="shared" si="5"/>
         <v>0.22735346358792172</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1182,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/Inditex_Simplified_ModelB - Copy.xlsx
+++ b/Inditex_Simplified_ModelB - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5E14C-9554-4218-92EA-6D71D16B16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D4493-4AE0-4509-B333-85951CDBB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inditex_Simplified_ModelB - Copy.xlsx
+++ b/Inditex_Simplified_ModelB - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D4493-4AE0-4509-B333-85951CDBB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462FBE3-E4A4-40E4-9CE6-B4AC12DF4C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C4A84D-D442-4020-887B-0F4C9E38A7D4}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,6 +1394,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>

--- a/Inditex_Simplified_ModelB - Copy.xlsx
+++ b/Inditex_Simplified_ModelB - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadir\Desktop\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462FBE3-E4A4-40E4-9CE6-B4AC12DF4C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62F833-1F9E-4F95-8679-C19CC425BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,25 +114,25 @@
     <t>Net_Income (€ Billions) US format</t>
   </si>
   <si>
-    <t>TOTAL LIABILITIES (PASIVO TOTAL) (€ Billions) US format</t>
-  </si>
-  <si>
-    <t>Net Worth (PATRIMONIO NETO) (€ Billions) US format</t>
-  </si>
-  <si>
-    <t>Total Assets (Activos totales) (€ Billions) US format</t>
-  </si>
-  <si>
-    <t>CURRENT ASSETS (ACTIVOS CORRIENTES) (€ Billions) US format</t>
-  </si>
-  <si>
-    <t>CURRENT LIABILITIES (PASIVOS CORRIENTES) (€ Billions) US format</t>
-  </si>
-  <si>
     <t>Cost of goods (€ Billions) US format</t>
   </si>
   <si>
     <t>Stock/inventories (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Total Assets (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>CURRENT ASSETS (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>CURRENT LIABILITIES (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>Net Worth (€ Billions) US format</t>
+  </si>
+  <si>
+    <t>TOTAL LIABILITIES (€ Billions) US format</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C4A84D-D442-4020-887B-0F4C9E38A7D4}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
     <col min="22" max="22" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,10 +541,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>28</v>
@@ -556,10 +556,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>22</v>
